--- a/web/excel/receipt/Receipt Format.xlsx
+++ b/web/excel/receipt/Receipt Format.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrador\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BFBA269-B92B-41EC-B10B-B08F373FE0D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AF6E5-6637-4E77-86BF-D83AF87343DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Orlando (Junio)" sheetId="3" r:id="rId1"/>
+    <sheet name="RECIBO" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Orlando (Junio)'!$A$1:$D$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RECIBO!$A$1:$D$27</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -59,6 +59,9 @@
   <si>
     <t xml:space="preserve">RECIBO DE PAGO  </t>
   </si>
+  <si>
+    <t>MOTIVO</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -185,11 +188,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -212,27 +241,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,13 +292,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>752475</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2698750</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -279,9 +314,9 @@
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="19050" y="1019175"/>
-          <a:ext cx="7734300" cy="47625"/>
+        <a:xfrm flipV="1">
+          <a:off x="19050" y="952500"/>
+          <a:ext cx="5367867" cy="66675"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -311,15 +346,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1692487</xdr:colOff>
+      <xdr:colOff>2243666</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>116418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>702469</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>52917</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2952749</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -336,8 +371,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1692487" y="0"/>
-          <a:ext cx="6010857" cy="1005417"/>
+          <a:off x="2243666" y="116418"/>
+          <a:ext cx="3397250" cy="613832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -531,15 +566,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>31750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1956906</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>74083</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -569,8 +604,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="2809875" cy="942975"/>
+          <a:off x="31750" y="0"/>
+          <a:ext cx="1925156" cy="645583"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -871,10 +906,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -888,88 +923,87 @@
     <col min="8" max="16384" width="11.42578125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:6" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+    <row r="8" spans="1:5" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-    </row>
-    <row r="11" spans="1:6" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+    </row>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-    </row>
-    <row r="12" spans="1:6" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="15" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+    </row>
+    <row r="12" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:5" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-    </row>
-    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+    </row>
+    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="7"/>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -984,7 +1018,7 @@
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="16"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -992,7 +1026,7 @@
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="8"/>
-      <c r="B20" s="16"/>
+      <c r="B20" s="15"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -1000,7 +1034,7 @@
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="8"/>
-      <c r="B21" s="16"/>
+      <c r="B21" s="15"/>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -1008,7 +1042,7 @@
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="8"/>
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -1016,7 +1050,7 @@
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="8"/>
-      <c r="B23" s="16"/>
+      <c r="B23" s="15"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -1024,23 +1058,32 @@
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="8"/>
-      <c r="B24" s="16"/>
+      <c r="B24" s="15"/>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="74" fitToWidth="0" orientation="portrait" r:id="rId1"/>

--- a/web/excel/receipt/Receipt Format.xlsx
+++ b/web/excel/receipt/Receipt Format.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204AF6E5-6637-4E77-86BF-D83AF87343DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EAC491-A4CC-4F24-94DF-68EBE92FC8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECIBO" sheetId="3" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">RECIBO!$A$1:$D$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">RECIBO!$A$1:$D$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,9 +48,6 @@
     <t>Firma de Recibido:</t>
   </si>
   <si>
-    <t>N° DE TB/CHEQUE</t>
-  </si>
-  <si>
     <t>FECHA EMISION</t>
   </si>
   <si>
@@ -62,12 +59,18 @@
   <si>
     <t>MOTIVO</t>
   </si>
+  <si>
+    <t>No TB/CHEQUE</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;L&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -89,38 +92,11 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="24"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Arial Narrow"/>
       <family val="2"/>
@@ -134,6 +110,17 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,55 +205,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -287,352 +275,52 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2698750</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm flipV="1">
-          <a:off x="19050" y="952500"/>
-          <a:ext cx="5367867" cy="66675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="558ED5"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>2243666</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>116418</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2952749</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Cuadro de texto 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2243666" y="116418"/>
-          <a:ext cx="3397250" cy="613832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rot="0" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" anchor="ctr" anchorCtr="0" upright="1">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="600"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-HN" sz="1000" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Book Antiqua"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="800"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:endParaRPr lang="es-HN" sz="1000" b="1">
-            <a:effectLst/>
-            <a:latin typeface="Book Antiqua"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Dirección: Quinta los Laureles, contiguo a los Juzgados,</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-HN" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>3era. Propiedad del Colegio de Ingenieros</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-HN" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="900"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Te.2440-6038  2440-7444</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-HN" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>Correo electrónico </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="1">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>ceprosaf2013@gmail.com</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-HN" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr>
-            <a:lnSpc>
-              <a:spcPts val="1000"/>
-            </a:lnSpc>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-HN" sz="1100">
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="es-HN" sz="1000">
-            <a:effectLst/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0">
-            <a:lnSpc>
-              <a:spcPts val="1100"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="1000"/>
-            </a:spcAft>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-HN" sz="1000">
-              <a:effectLst/>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Times New Roman"/>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Times New Roman"/>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>31750</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1956906</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>74083</xdr:rowOff>
+      <xdr:colOff>3189768</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>156120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="4 Imagen" descr="C:\Users\molineros comercial\Desktop\Manual de imagen corporativa\IMAGEN CORPORATIVA\Manueal de imagen corporativa\Archivos\Papelería\Hojas.jpg">
+        <xdr:cNvPr id="6" name="Picture 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71FF1A3-3898-4D2F-AE34-31A03C08B04A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect r="55153" b="90080"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="31750" y="0"/>
-          <a:ext cx="1925156" cy="645583"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5875596" cy="1058666"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -908,172 +596,208 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="40.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="54" style="12" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="12" style="5" customWidth="1"/>
-    <col min="5" max="6" width="15.7109375" style="5" customWidth="1"/>
-    <col min="7" max="7" width="4.28515625" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="40.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="54" style="8" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12" style="4" customWidth="1"/>
+    <col min="5" max="6" width="15.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="4.28515625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B6" s="2"/>
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:5" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+    </row>
+    <row r="9" spans="1:5" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" spans="1:5" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:5" s="3" customFormat="1" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="8.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="13"/>
+    </row>
+    <row r="13" spans="1:5" s="3" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="7"/>
-    </row>
-    <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="1:6" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
     </row>
     <row r="22" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
+      <c r="A23" s="5"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
+      <c r="A25" s="5"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/web/excel/receipt/Receipt Format.xlsx
+++ b/web/excel/receipt/Receipt Format.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\app-admon\web\excel\receipt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EAC491-A4CC-4F24-94DF-68EBE92FC8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E401B666-25C2-41A1-9C0A-40A5E63CCB02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECIBO" sheetId="3" r:id="rId1"/>
@@ -283,17 +283,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>3189768</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>156120</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>232833</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>225499</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71FF1A3-3898-4D2F-AE34-31A03C08B04A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0034659-7DF4-44EC-B09C-15F155C439C6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -316,7 +316,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="5875596" cy="1058666"/>
+          <a:ext cx="6519333" cy="923999"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -596,8 +596,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="80" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
